--- a/biology/Zoologie/Abrytusites/Abrytusites.xlsx
+++ b/biology/Zoologie/Abrytusites/Abrytusites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrytusites est un genre d'ammonites de la famille des Desmoceratidea et de la sous-famille des Puzosiinae[1],[2],[3]. Elle a vécu au début du Crétacé et atteignait environ 14 cm [4]. Le nom du genre provient d'Abritus - ancienne ville romaine, située à l'emplacement de l'actuelle ville de Razgrad en Bulgarie[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrytusites est un genre d'ammonites de la famille des Desmoceratidea et de la sous-famille des Puzosiinae. Elle a vécu au début du Crétacé et atteignait environ 14 cm . Le nom du genre provient d'Abritus - ancienne ville romaine, située à l'emplacement de l'actuelle ville de Razgrad en Bulgarie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristique générique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammonites évolutes, relativement grosses, à la section ovale-allongée et côté extérieur arrondi. L'ornementation est formée par des sillons et de côtes radiales assez épaisses dont la forme est ordinairement en V. Ils commencent à partir d'un renflement dans la région du bord ombilical ; chez les ammonites aux sillons ce renflement est plus faible. Les sillons et l'une des branches des côtes en forme de V traversent sans interruption la région extérieure. La ligne cloisonnée n'est pas très précise.
 Abrytusites est un genre de Desmoceratidae possédant plus de traits généraux avec les ammonites de la sous-famille des Puzosiinae. Abrytusites est étroitement lié avec le genre Valdedorsella dont très probablement il tire son origine.
@@ -543,7 +557,9 @@
           <t>Gisements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Maroc, Espagne, France, Italie, République d’Autriche, République tchèque, Slovaquie, Bulgarie, Russie.
 </t>
@@ -574,11 +590,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Abrytusites neumayri[6]
-Abrytusites thieuloyi[7]
-Abrytusites julianyi[8]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abrytusites neumayri
+Abrytusites thieuloyi
+Abrytusites julianyi
 Abrytusites sulcatus</t>
         </is>
       </c>
